--- a/lin_R1_by_R2 (2.5 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)1000.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>freq_to_store</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -368,6 +372,158 @@
         <v>-0.10945456292120836</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.2482788568944119</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.5714899739497497</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.9783886625850937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4906437617338506</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.135534723373362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.9474043428177197</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.969487637799881</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.256214270823239</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.876107127168692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.915431408405821</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.482788568944118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.714899739497497</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.783886625850936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.906437617338508</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31.355347233733617</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39.4740434281772</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>49.69487637799882</v>
+      </c>
+      <c r="R3" t="n">
+        <v>62.56214270823239</v>
+      </c>
+      <c r="S3" t="n">
+        <v>78.76107127168692</v>
+      </c>
+      <c r="T3" t="n">
+        <v>99.15431408405821</v>
+      </c>
+      <c r="U3" t="n">
+        <v>124.82788568944117</v>
+      </c>
+      <c r="V3" t="n">
+        <v>157.14899739497497</v>
+      </c>
+      <c r="W3" t="n">
+        <v>197.83886625850937</v>
+      </c>
+      <c r="X3" t="n">
+        <v>249.06437617338509</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>313.5534723373362</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>394.74043428177197</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>496.94876377998816</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>625.621427082324</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>787.6107127168692</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>991.543140840582</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1248.2788568944118</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1571.4899739497496</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1978.3886625850937</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2490.6437617338506</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3135.534723373362</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3947.4043428177197</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4969.487637799882</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6256.2142708232395</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7876.107127168692</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9915.43140840582</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12482.788568944117</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15714.899739497496</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19783.886625850937</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24906.437617338506</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>31355.347233733617</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>39474.043428177196</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>49694.876377998815</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>62562.14270823239</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>78761.07127168692</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>99154.3140840582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (2.5 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)1000.xlsx
@@ -841,6 +841,158 @@
         <v>-0.10946298359362498</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.2482788568944119</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.5714899739497497</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.9783886625850937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4906437617338506</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.135534723373362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.9474043428177197</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.969487637799881</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.256214270823239</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.876107127168692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.915431408405821</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.482788568944118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.714899739497497</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.783886625850936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.906437617338508</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31.355347233733617</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39.4740434281772</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>49.69487637799882</v>
+      </c>
+      <c r="R3" t="n">
+        <v>62.56214270823239</v>
+      </c>
+      <c r="S3" t="n">
+        <v>78.76107127168692</v>
+      </c>
+      <c r="T3" t="n">
+        <v>99.15431408405821</v>
+      </c>
+      <c r="U3" t="n">
+        <v>124.82788568944117</v>
+      </c>
+      <c r="V3" t="n">
+        <v>157.14899739497497</v>
+      </c>
+      <c r="W3" t="n">
+        <v>197.83886625850937</v>
+      </c>
+      <c r="X3" t="n">
+        <v>249.06437617338509</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>313.5534723373362</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>394.74043428177197</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>496.94876377998816</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>625.621427082324</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>787.6107127168692</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>991.543140840582</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1248.2788568944118</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1571.4899739497496</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1978.3886625850937</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2490.6437617338506</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3135.534723373362</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3947.4043428177197</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4969.487637799882</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6256.2142708232395</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7876.107127168692</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9915.43140840582</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12482.788568944117</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15714.899739497496</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19783.886625850937</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24906.437617338506</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>31355.347233733617</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>39474.043428177196</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>49694.876377998815</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>62562.14270823239</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>78761.07127168692</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>99154.3140840582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1156,6 +1308,158 @@
       </c>
       <c r="AX2" t="n">
         <v>-0.10946418759012463</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.2482788568944119</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.5714899739497497</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.9783886625850937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4906437617338506</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.135534723373362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.9474043428177197</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.969487637799881</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.256214270823239</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.876107127168692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.915431408405821</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.482788568944118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.714899739497497</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.783886625850936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.906437617338508</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31.355347233733617</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39.4740434281772</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>49.69487637799882</v>
+      </c>
+      <c r="R3" t="n">
+        <v>62.56214270823239</v>
+      </c>
+      <c r="S3" t="n">
+        <v>78.76107127168692</v>
+      </c>
+      <c r="T3" t="n">
+        <v>99.15431408405821</v>
+      </c>
+      <c r="U3" t="n">
+        <v>124.82788568944117</v>
+      </c>
+      <c r="V3" t="n">
+        <v>157.14899739497497</v>
+      </c>
+      <c r="W3" t="n">
+        <v>197.83886625850937</v>
+      </c>
+      <c r="X3" t="n">
+        <v>249.06437617338509</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>313.5534723373362</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>394.74043428177197</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>496.94876377998816</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>625.621427082324</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>787.6107127168692</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>991.543140840582</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1248.2788568944118</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1571.4899739497496</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1978.3886625850937</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2490.6437617338506</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3135.534723373362</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3947.4043428177197</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4969.487637799882</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6256.2142708232395</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7876.107127168692</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9915.43140840582</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12482.788568944117</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15714.899739497496</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19783.886625850937</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24906.437617338506</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>31355.347233733617</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>39474.043428177196</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>49694.876377998815</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>62562.14270823239</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>78761.07127168692</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>99154.3140840582</v>
       </c>
     </row>
   </sheetData>
@@ -1475,6 +1779,158 @@
         <v>-0.10945455489586607</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.2482788568944119</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.5714899739497497</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.9783886625850937</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.4906437617338506</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.135534723373362</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.9474043428177197</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.969487637799881</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.256214270823239</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7.876107127168692</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.915431408405821</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.482788568944118</v>
+      </c>
+      <c r="L3" t="n">
+        <v>15.714899739497497</v>
+      </c>
+      <c r="M3" t="n">
+        <v>19.783886625850936</v>
+      </c>
+      <c r="N3" t="n">
+        <v>24.906437617338508</v>
+      </c>
+      <c r="O3" t="n">
+        <v>31.355347233733617</v>
+      </c>
+      <c r="P3" t="n">
+        <v>39.4740434281772</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>49.69487637799882</v>
+      </c>
+      <c r="R3" t="n">
+        <v>62.56214270823239</v>
+      </c>
+      <c r="S3" t="n">
+        <v>78.76107127168692</v>
+      </c>
+      <c r="T3" t="n">
+        <v>99.15431408405821</v>
+      </c>
+      <c r="U3" t="n">
+        <v>124.82788568944117</v>
+      </c>
+      <c r="V3" t="n">
+        <v>157.14899739497497</v>
+      </c>
+      <c r="W3" t="n">
+        <v>197.83886625850937</v>
+      </c>
+      <c r="X3" t="n">
+        <v>249.06437617338509</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>313.5534723373362</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>394.74043428177197</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>496.94876377998816</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>625.621427082324</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>787.6107127168692</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>991.543140840582</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1248.2788568944118</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1571.4899739497496</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1978.3886625850937</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>2490.6437617338506</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3135.534723373362</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>3947.4043428177197</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>4969.487637799882</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>6256.2142708232395</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>7876.107127168692</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9915.43140840582</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>12482.788568944117</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>15714.899739497496</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>19783.886625850937</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>24906.437617338506</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>31355.347233733617</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>39474.043428177196</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>49694.876377998815</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>62562.14270823239</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>78761.07127168692</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>99154.3140840582</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (2.5 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)1000.xlsx
@@ -70,458 +70,512 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.416665906632118</v>
+        <v>1.4166666184017163</v>
       </c>
       <c r="B1" t="n">
-        <v>1.41666546209368</v>
+        <v>1.4166665901718778</v>
       </c>
       <c r="C1" t="n">
-        <v>1.4166647575486364</v>
+        <v>1.4166665454306027</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4166636409222548</v>
+        <v>1.4166664745204693</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4166618711943855</v>
+        <v>1.4166663621355047</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4166590663790042</v>
+        <v>1.4166661840173966</v>
       </c>
       <c r="G1" t="n">
-        <v>1.416654621082047</v>
+        <v>1.4166659017193646</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4166475758512034</v>
+        <v>1.4166654543074981</v>
       </c>
       <c r="I1" t="n">
-        <v>1.4166364101389703</v>
+        <v>1.4166647452083891</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4166187142457534</v>
+        <v>1.4166636213643296</v>
       </c>
       <c r="K1" t="n">
-        <v>1.4165906695719466</v>
+        <v>1.4166618401972855</v>
       </c>
       <c r="L1" t="n">
-        <v>1.4165462253431593</v>
+        <v>1.4166590172522187</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4164757949881914</v>
+        <v>1.4166545432221116</v>
       </c>
       <c r="N1" t="n">
-        <v>1.416364193000971</v>
+        <v>1.4166474524534622</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4161873725241105</v>
+        <v>1.4166362145716036</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4159072734195397</v>
+        <v>1.4166184043046062</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.4154637037488782</v>
+        <v>1.4165901783790777</v>
       </c>
       <c r="R1" t="n">
-        <v>1.414761589734759</v>
+        <v>1.4165454469321443</v>
       </c>
       <c r="S1" t="n">
-        <v>1.4136510602751902</v>
+        <v>1.4164745614838004</v>
       </c>
       <c r="T1" t="n">
-        <v>1.411896609308738</v>
+        <v>1.4163622385152324</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4091300178651895</v>
+        <v>1.4161842760955923</v>
       </c>
       <c r="V1" t="n">
-        <v>1.4047801437250422</v>
+        <v>1.415902368979768</v>
       </c>
       <c r="W1" t="n">
-        <v>1.3979722834583417</v>
+        <v>1.4154559384344416</v>
       </c>
       <c r="X1" t="n">
-        <v>1.3873937866653585</v>
+        <v>1.414749301841568</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.3711382016224654</v>
+        <v>1.4136316336089922</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.3465806140779508</v>
+        <v>1.4118659409310779</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.310416910184907</v>
+        <v>1.409081712897567</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.2591087384984947</v>
+        <v>1.4047043327611282</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.1900063528390084</v>
+        <v>1.3978539724590913</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.1031101853126584</v>
+        <v>1.3872107639110354</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.002599352586874</v>
+        <v>1.3708588826853203</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.896539883085197</v>
+        <v>1.3461630259019937</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7940639513567735</v>
+        <v>1.3098114356221473</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.7017176191167979</v>
+        <v>1.2582686434121413</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6216921894356783</v>
+        <v>1.1889088755288708</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.5527681869101316</v>
+        <v>1.1017827814373757</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.4925313634143214</v>
+        <v>1.00113189627804</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.43905178997963124</v>
+        <v>0.8950616879954802</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3912878555927267</v>
+        <v>0.7926917957293638</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.34867157187926373</v>
+        <v>0.7005128476518742</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.3107060373592946</v>
+        <v>0.62065660173937</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.27688782050151467</v>
+        <v>0.5518710451788604</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.24675656692729456</v>
+        <v>0.4917398893087154</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.21990794053945062</v>
+        <v>0.43834571644328985</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1959833308565119</v>
+        <v>0.39065724373659894</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.17466345874369182</v>
+        <v>0.34810950802594737</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.1556641623016655</v>
+        <v>0.3102054242544041</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.1387324596402492</v>
+        <v>0.2764418281799993</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.12364306924841437</v>
+        <v>0.24635917227732662</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.11019533987758319</v>
+        <v>0.2195538322842065</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.1956677808755777</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.1743822587543513</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.1554135664327887</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.13850913252583233</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.12344404042544783</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.11001796343347765</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-385.77851187915945</v>
+        <v>-1530.8689792309754</v>
       </c>
       <c r="B2" t="n">
-        <v>-306.43516887885687</v>
+        <v>-1216.0125558114783</v>
       </c>
       <c r="C2" t="n">
-        <v>-243.41061604223506</v>
+        <v>-965.9132352011511</v>
       </c>
       <c r="D2" t="n">
-        <v>-193.34856610993722</v>
+        <v>-767.2523165856976</v>
       </c>
       <c r="E2" t="n">
-        <v>-153.5830323696586</v>
+        <v>-609.4503816281206</v>
       </c>
       <c r="F2" t="n">
-        <v>-121.99635514154029</v>
+        <v>-484.1039018642231</v>
       </c>
       <c r="G2" t="n">
-        <v>-96.906428676922</v>
+        <v>-384.53772016824865</v>
       </c>
       <c r="H2" t="n">
-        <v>-76.97712289098288</v>
+        <v>-305.44957429481303</v>
       </c>
       <c r="I2" t="n">
-        <v>-61.147129558686714</v>
+        <v>-242.6277320794631</v>
       </c>
       <c r="J2" t="n">
-        <v>-48.57344377211228</v>
+        <v>-192.72670134260682</v>
       </c>
       <c r="K2" t="n">
-        <v>-38.586470835909594</v>
+        <v>-153.08907023124425</v>
       </c>
       <c r="L2" t="n">
-        <v>-30.654367869855808</v>
+        <v>-121.60399034688194</v>
       </c>
       <c r="M2" t="n">
-        <v>-24.354721159866433</v>
+        <v>-96.59476636984398</v>
       </c>
       <c r="N2" t="n">
-        <v>-19.352050935358214</v>
+        <v>-76.7295659169621</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.37994554512273</v>
+        <v>-60.95049460575868</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.22687346183791</v>
+        <v>-48.41725931124884</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.724917255718314</v>
+        <v>-38.46241947354049</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.740828992347479</v>
+        <v>-30.555843415587354</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.168929563389978</v>
+        <v>-24.276476821269494</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.925471547412569</v>
+        <v>-19.289919904180227</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.944161022508767</v>
+        <v>-15.330619093658232</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.172591548255256</v>
+        <v>-12.187724729373155</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.5693851743289025</v>
+        <v>-9.693861335270155</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.101861753622697</v>
+        <v>-7.716211855411383</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.7440708642821292</v>
+        <v>-6.149439885145343</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.4750287284981525</v>
+        <v>-4.910070693157836</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.2770338404250487</v>
+        <v>-3.932027383193824</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.134053945252502</v>
+        <v>-3.163076104092401</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.0304633357534372</v>
+        <v>-2.561975638284188</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.9507991609966318</v>
+        <v>-2.0961529132801</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.8812052883118004</v>
+        <v>-1.739738853076025</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8121381210511247</v>
+        <v>-1.4718071331796434</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.7402503484825271</v>
+        <v>-1.2746904136350294</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.6674574192904963</v>
+        <v>-1.1323694034070784</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.597718279095178</v>
+        <v>-1.0292189912478285</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5340068048403938</v>
+        <v>-0.9497845998639247</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4771956591145504</v>
+        <v>-0.8802506427020996</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.4266798731535153</v>
+        <v>-0.8111522466931509</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.38150559808288187</v>
+        <v>-0.7392295651387688</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3409771048650858</v>
+        <v>-0.666451530627076</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.30463659341472277</v>
+        <v>-0.5967808409180887</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.2720913794891727</v>
+        <v>-0.5331646164127897</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.24296437684276698</v>
+        <v>-0.47644775901624753</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.21690835479735363</v>
+        <v>-0.4260130185451434</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.19360954186382037</v>
+        <v>-0.38090776890284544</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.17278412322720318</v>
+        <v>-0.3404407157064147</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.15417573672103974</v>
+        <v>-0.30415597932829685</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.13755324633107313</v>
+        <v>-0.27166113823771626</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.12270855933852325</v>
+        <v>-0.24257941512787687</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.10945456292120836</v>
+        <v>-0.2165640596781276</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.19330174292232372</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.17250904949386048</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.15392998559952337</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.1373337524233699</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.12251256471402135</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.10927958915083492</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.2482788568944119</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9783886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4906437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.135534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9474043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.969487637799881</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.256214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.876107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.915431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.482788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.783886625850936</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.906437617338508</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>31.355347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>39.4740434281772</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.69487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>62.56214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>78.76107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>99.15431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>124.82788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>157.14899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>197.83886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>249.06437617338509</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>313.5534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>394.74043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.94876377998816</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.621427082324</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>787.6107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>991.543140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1248.2788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1571.4899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1978.3886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2490.6437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3135.534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3947.4043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4969.487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6256.2142708232395</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7876.107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9915.43140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12482.788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15714.899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19783.886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24906.437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>31355.347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>39474.043428177196</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>49694.876377998815</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>62562.14270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>78761.07127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>99154.3140840582</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -539,458 +593,512 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.416667867024482</v>
+        <v>1.4166667428983095</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4166685690334546</v>
+        <v>1.4166667874853875</v>
       </c>
       <c r="C1" t="n">
-        <v>1.416669681533636</v>
+        <v>1.416666858150704</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4166714444536834</v>
+        <v>1.4166669701465784</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4166742378057426</v>
+        <v>1.4166671476453014</v>
       </c>
       <c r="F1" t="n">
-        <v>1.416678663242912</v>
+        <v>1.4166674289548478</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4166856727508441</v>
+        <v>1.416667874782922</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4166967711851957</v>
+        <v>1.4166685813288176</v>
       </c>
       <c r="I1" t="n">
-        <v>1.416714333702139</v>
+        <v>1.4166697010181228</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4167420999236309</v>
+        <v>1.4166714753286123</v>
       </c>
       <c r="K1" t="n">
-        <v>1.4167859348625356</v>
+        <v>1.4166742867243853</v>
       </c>
       <c r="L1" t="n">
-        <v>1.4168549795603635</v>
+        <v>1.416678740736518</v>
       </c>
       <c r="M1" t="n">
-        <v>1.416963338067599</v>
+        <v>1.416685795476497</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4171324171013335</v>
+        <v>1.4166969654577497</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4173938307630507</v>
+        <v>1.4167146410151623</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4177921211529319</v>
+        <v>1.4167425855075935</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.4183848366978842</v>
+        <v>1.4167867007705306</v>
       </c>
       <c r="R1" t="n">
-        <v>1.41923376698471</v>
+        <v>1.416856184222285</v>
       </c>
       <c r="S1" t="n">
-        <v>1.4203744328921524</v>
+        <v>1.4169652243654511</v>
       </c>
       <c r="T1" t="n">
-        <v>1.4217427041422361</v>
+        <v>1.4171353497794088</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4230365785664743</v>
+        <v>1.4173983388333207</v>
       </c>
       <c r="V1" t="n">
-        <v>1.4235162138486261</v>
+        <v>1.4177989261156416</v>
       </c>
       <c r="W1" t="n">
-        <v>1.4218027716670172</v>
+        <v>1.4183948117543754</v>
       </c>
       <c r="X1" t="n">
-        <v>1.415774513549966</v>
+        <v>1.4192477002022785</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.4025959034915656</v>
+        <v>1.4203923535351541</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.378815047154879</v>
+        <v>1.42176243486276</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.3405421404680526</v>
+        <v>1.4230512998219973</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.2839991186168622</v>
+        <v>1.423511440351716</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.2068745517039063</v>
+        <v>1.421754015404554</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.1104549775569126</v>
+        <v>1.4156468383425571</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.0012389211927362</v>
+        <v>1.4023450045963022</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.8897773098460328</v>
+        <v>1.3783888773915305</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7862215760497764</v>
+        <v>1.3398850215847757</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6958869507521902</v>
+        <v>1.2830642848351315</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6186021214873567</v>
+        <v>1.205649850726482</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.551480980545804</v>
+        <v>1.1089938476487087</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.49189936372756815</v>
+        <v>0.9996682620375222</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.43854756073156254</v>
+        <v>0.888254547009833</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3908701777874206</v>
+        <v>0.7848613428800183</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3483730541674491</v>
+        <v>0.6947209142020183</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.31050177316514155</v>
+        <v>0.6176003712145758</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.27674494038530917</v>
+        <v>0.5505999240306498</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.24665598473703923</v>
+        <v>0.491111684142799</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.21983722720575646</v>
+        <v>0.43784240794451484</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.19593357654705787</v>
+        <v>0.3902411466323107</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.1746284251007474</v>
+        <v>0.34781256863479587</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.15563947909003045</v>
+        <v>0.3100022112532481</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.13871505947000917</v>
+        <v>0.27629964742293556</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.1236307973014144</v>
+        <v>0.24625908441214386</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.11018668107754809</v>
+        <v>0.21948346638325042</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.1956182703743663</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.17434739647716174</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.15538900376045603</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.1384918172052673</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.12343182824407216</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.11000934675461807</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-385.7782711906308</v>
+        <v>-1530.8689185746769</v>
       </c>
       <c r="B2" t="n">
-        <v>-306.4348658792848</v>
+        <v>-1216.0124794498722</v>
       </c>
       <c r="C2" t="n">
-        <v>-243.4102346069948</v>
+        <v>-965.9131390678828</v>
       </c>
       <c r="D2" t="n">
-        <v>-193.34808594857026</v>
+        <v>-767.2521955616778</v>
       </c>
       <c r="E2" t="n">
-        <v>-153.58242795642516</v>
+        <v>-609.4502292690931</v>
       </c>
       <c r="F2" t="n">
-        <v>-121.99559437820292</v>
+        <v>-484.1037100579389</v>
       </c>
       <c r="G2" t="n">
-        <v>-96.90547122749973</v>
+        <v>-384.5374787031665</v>
       </c>
       <c r="H2" t="n">
-        <v>-76.97591812159065</v>
+        <v>-305.4492703177088</v>
       </c>
       <c r="I2" t="n">
-        <v>-61.14561401606196</v>
+        <v>-242.62734941376354</v>
       </c>
       <c r="J2" t="n">
-        <v>-48.57153815242281</v>
+        <v>-192.7262196325441</v>
       </c>
       <c r="K2" t="n">
-        <v>-38.58407645203252</v>
+        <v>-153.08846386903792</v>
       </c>
       <c r="L2" t="n">
-        <v>-30.651362762014486</v>
+        <v>-121.60322713136823</v>
       </c>
       <c r="M2" t="n">
-        <v>-24.350956290126156</v>
+        <v>-96.59380583617636</v>
       </c>
       <c r="N2" t="n">
-        <v>-19.347347503518815</v>
+        <v>-76.72835727043952</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.374095599260045</v>
+        <v>-60.948974193480694</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.21964798572055</v>
+        <v>-48.41534758365007</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.716089086615838</v>
+        <v>-38.46001744522376</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.730221911532631</v>
+        <v>-30.552828773138216</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.156507197715358</v>
+        <v>-24.27270012439692</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.911473211522776</v>
+        <v>-19.285201929213923</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.9292646985840465</v>
+        <v>-15.324751513883307</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.1580334531909457</v>
+        <v>-12.18047835041039</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.556924939476135</v>
+        <v>-9.685009291528052</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.093524033442473</v>
+        <v>-7.705579163780053</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.7417285501897248</v>
+        <v>-6.1369929875091875</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.4799827885083627</v>
+        <v>-4.896053909480961</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.2896710595609187</v>
+        <v>-3.917125905481685</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.1535396288066238</v>
+        <v>-3.148534201237756</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.054471610929974</v>
+        <v>-2.5495589485888916</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.9755609607942811</v>
+        <v>-2.0878870356025043</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.9023873249934002</v>
+        <v>-1.7374914179211816</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8266212523119582</v>
+        <v>-1.476868511044471</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.7476665556136751</v>
+        <v>-1.2874324174433216</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.6699779959440962</v>
+        <v>-1.151938087926834</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5982163240575319</v>
+        <v>-1.0532666405638351</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.534317149572646</v>
+        <v>-0.9745257172795884</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4777486622134255</v>
+        <v>-0.9013552975829368</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.42724089700803997</v>
+        <v>-0.825531854625983</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.3819061107907896</v>
+        <v>-0.7465581173422754</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.34124160766114914</v>
+        <v>-0.6689248898619888</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.30482205010840613</v>
+        <v>-0.5972671830247035</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.27222405882547157</v>
+        <v>-0.5334780616805683</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.24305849201665403</v>
+        <v>-0.477002931208001</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.2169750300402864</v>
+        <v>-0.4265723870558508</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.19365678898584252</v>
+        <v>-0.38130594784390925</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.1728175948628773</v>
+        <v>-0.34070378976504284</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.1541994455958271</v>
+        <v>-0.3043405709270166</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.13757003797781886</v>
+        <v>-0.27179318829022314</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.12272045080877166</v>
+        <v>-0.24267307707681862</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.10946298359362498</v>
+        <v>-0.21663041444697892</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.19334876281171115</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.172542360057438</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.15395358033879547</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.1373504632099623</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.12252439890753238</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.1092879692566892</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.2482788568944119</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9783886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4906437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.135534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9474043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.969487637799881</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.256214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.876107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.915431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.482788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.783886625850936</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.906437617338508</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>31.355347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>39.4740434281772</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.69487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>62.56214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>78.76107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>99.15431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>124.82788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>157.14899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>197.83886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>249.06437617338509</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>313.5534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>394.74043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.94876377998816</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.621427082324</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>787.6107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>991.543140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1248.2788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1571.4899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1978.3886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2490.6437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3135.534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3947.4043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4969.487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6256.2142708232395</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7876.107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9915.43140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12482.788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15714.899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19783.886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24906.437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>31355.347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>39474.043428177196</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>49694.876377998815</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>62562.14270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>78761.07127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>99154.3140840582</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1008,458 +1116,512 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.4766645997750423</v>
+        <v>1.4766665354084525</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4766633909141385</v>
+        <v>1.4766664586366178</v>
       </c>
       <c r="C1" t="n">
-        <v>1.4766614750742122</v>
+        <v>1.4766663369617643</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4766584388621586</v>
+        <v>1.4766661441208822</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4766536272665178</v>
+        <v>1.476665838490602</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4766460025970887</v>
+        <v>1.476665354104077</v>
       </c>
       <c r="G1" t="n">
-        <v>1.476633921312607</v>
+        <v>1.4766645864152925</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4766147813027202</v>
+        <v>1.4766633697410094</v>
       </c>
       <c r="I1" t="n">
-        <v>1.4765844653380786</v>
+        <v>1.476661441518691</v>
       </c>
       <c r="J1" t="n">
-        <v>1.476536465176436</v>
+        <v>1.4766583856843267</v>
       </c>
       <c r="K1" t="n">
-        <v>1.476460508775124</v>
+        <v>1.4766535429955936</v>
       </c>
       <c r="L1" t="n">
-        <v>1.476340422851492</v>
+        <v>1.476645869062436</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4761508397458767</v>
+        <v>1.476633709739119</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4758522088875168</v>
+        <v>1.4766144461436486</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4753834446729384</v>
+        <v>1.4765839345538792</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4746515696943072</v>
+        <v>1.476535624960568</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.4735181985839092</v>
+        <v>1.4764591796768238</v>
       </c>
       <c r="R1" t="n">
-        <v>1.4717841392813569</v>
+        <v>1.4763383227526095</v>
       </c>
       <c r="S1" t="n">
-        <v>1.4691759843555958</v>
+        <v>1.4761475271984599</v>
       </c>
       <c r="T1" t="n">
-        <v>1.4653403851825548</v>
+        <v>1.4758469982024955</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4598448421108627</v>
+        <v>1.475375282982194</v>
       </c>
       <c r="V1" t="n">
-        <v>1.4521552418138273</v>
+        <v>1.4746388688863608</v>
       </c>
       <c r="W1" t="n">
-        <v>1.4415179168987653</v>
+        <v>1.473498627284714</v>
       </c>
       <c r="X1" t="n">
-        <v>1.4266906889510667</v>
+        <v>1.4717544089649213</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.4056164847673005</v>
+        <v>1.4691317039882494</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.3752925574135748</v>
+        <v>1.4652760507937779</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.3320681391934575</v>
+        <v>1.4597538048388305</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.272508102438526</v>
+        <v>1.4520289195089524</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.194856922163314</v>
+        <v>1.4413430877266857</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.1007041896493028</v>
+        <v>1.4264448584526563</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.9957292633715545</v>
+        <v>1.4052640472021567</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.888415455445694</v>
+        <v>1.3747855979188528</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7870530166773486</v>
+        <v>1.3313543588039978</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6968415062489896</v>
+        <v>1.271547346595084</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6188591609697607</v>
+        <v>1.1936448906477843</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.5512968999888743</v>
+        <v>1.09929247611812</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.49170223056283613</v>
+        <v>0.9942228326795594</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.43845716245419714</v>
+        <v>0.8869395104135309</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3908258583119375</v>
+        <v>0.7857067759353161</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.3483380668004438</v>
+        <v>0.6956679895775257</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.31047541641277876</v>
+        <v>0.6178480185267838</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.27672647239850945</v>
+        <v>0.5504132306626889</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.24664287726438375</v>
+        <v>0.4909159639972135</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.21982791136017282</v>
+        <v>0.437753162908817</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.1959269630939542</v>
+        <v>0.39019707108830587</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.17462373107431356</v>
+        <v>0.34777768350966726</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.1556361483759122</v>
+        <v>0.3099759816216733</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.13871269670049832</v>
+        <v>0.2762812697280553</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.12362912155214778</v>
+        <v>0.2462460391527499</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.11018549281907476</v>
+        <v>0.21947419507289442</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.19561168855182934</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.17434272492101643</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.1553856890026365</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.1384894657626893</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.1234301605330938</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.11000816419910239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-385.7787654589452</v>
+        <v>-1530.8690431348014</v>
       </c>
       <c r="B2" t="n">
-        <v>-306.4354881108622</v>
+        <v>-1216.012636261532</v>
       </c>
       <c r="C2" t="n">
-        <v>-243.41101791948645</v>
+        <v>-965.9133364815757</v>
       </c>
       <c r="D2" t="n">
-        <v>-193.3490720194161</v>
+        <v>-767.2524440898136</v>
       </c>
       <c r="E2" t="n">
-        <v>-153.5836692240682</v>
+        <v>-609.4505421455257</v>
       </c>
       <c r="F2" t="n">
-        <v>-121.99715679821195</v>
+        <v>-484.10410394213363</v>
       </c>
       <c r="G2" t="n">
-        <v>-96.90743771234895</v>
+        <v>-384.5379745662134</v>
       </c>
       <c r="H2" t="n">
-        <v>-76.97839281140654</v>
+        <v>-305.44989455678615</v>
       </c>
       <c r="I2" t="n">
-        <v>-61.1487275364962</v>
+        <v>-242.6281352532503</v>
       </c>
       <c r="J2" t="n">
-        <v>-48.57545399837618</v>
+        <v>-192.72720888409447</v>
       </c>
       <c r="K2" t="n">
-        <v>-38.58899855824153</v>
+        <v>-153.08970913976623</v>
       </c>
       <c r="L2" t="n">
-        <v>-30.657544116297405</v>
+        <v>-121.6047945886006</v>
       </c>
       <c r="M2" t="n">
-        <v>-24.358707984512897</v>
+        <v>-96.59577865780332</v>
       </c>
       <c r="N2" t="n">
-        <v>-19.357046671937564</v>
+        <v>-76.73083992839608</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.386188877174268</v>
+        <v>-60.952097726504</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.234643922779611</v>
+        <v>-48.41927599747647</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.734527944551653</v>
+        <v>-38.464955299457316</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.752605241359194</v>
+        <v>-30.559029806300465</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.18316706096587</v>
+        <v>-24.280476303185473</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.942374186249205</v>
+        <v>-19.29493135233975</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.9637794407793017</v>
+        <v>-15.336881771956117</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.1948133529767935</v>
+        <v>-12.19551871572566</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.594026271500355</v>
+        <v>-9.703500088173719</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.1288174420525237</v>
+        <v>-7.728020634644549</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.773354741071665</v>
+        <v>-6.163713559702077</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.506543098131262</v>
+        <v>-4.927011387104457</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.3101228325552534</v>
+        <v>-3.951683325189428</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.1671050298259609</v>
+        <v>-3.1853330144131897</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.0609325039436126</v>
+        <v>-2.586649507302432</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.9759478814298802</v>
+        <v>-2.123140936035926</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.8993188704057699</v>
+        <v>-1.769055338908204</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8233147651523517</v>
+        <v>-1.5033499312667868</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.7460787520693837</v>
+        <v>-1.307792488869899</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.6700339174793329</v>
+        <v>-1.1654035748309475</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5988283385159208</v>
+        <v>-1.0596316940927841</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.5347262317867533</v>
+        <v>-0.9748429491858491</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4778831233215607</v>
+        <v>-0.898262118620416</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.4272890527135706</v>
+        <v>-0.8222407102893774</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.3819534303311489</v>
+        <v>-0.7449979867630087</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.34128135085950706</v>
+        <v>-0.6689965772101012</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.30484922113526863</v>
+        <v>-0.5978798566877693</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.2722430616865647</v>
+        <v>-0.5338825368933378</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.24307200155400188</v>
+        <v>-0.4771348993090995</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.21698459171289824</v>
+        <v>-0.4266202968088166</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.19366355843146124</v>
+        <v>-0.3813532723101496</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.17282238751767612</v>
+        <v>-0.3407433484665176</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.1542028386655065</v>
+        <v>-0.3043675966235761</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.13757244016106032</v>
+        <v>-0.27181210092871205</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.12272215146589865</v>
+        <v>-0.24268652163833657</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.10946418759012463</v>
+        <v>-0.21663993000113418</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.19335549963253335</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.17254712961127897</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.15395695705334128</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.1373528538140617</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.12252609136692189</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.10928916744944764</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.2482788568944119</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9783886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4906437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.135534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9474043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.969487637799881</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.256214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.876107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.915431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.482788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.783886625850936</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.906437617338508</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>31.355347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>39.4740434281772</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.69487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>62.56214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>78.76107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>99.15431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>124.82788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>157.14899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>197.83886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>249.06437617338509</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>313.5534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>394.74043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.94876377998816</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.621427082324</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>787.6107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>991.543140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1248.2788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1571.4899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1978.3886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2490.6437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3135.534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3947.4043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4969.487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6256.2142708232395</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7876.107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9915.43140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12482.788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15714.899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19783.886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24906.437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>31355.347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>39474.043428177196</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>49694.876377998815</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>62562.14270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>78761.07127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>99154.3140840582</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -1477,458 +1639,512 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.416665668684193</v>
+        <v>1.4166666032894888</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4166650849978684</v>
+        <v>1.4166665662207172</v>
       </c>
       <c r="C1" t="n">
-        <v>1.4166641599579453</v>
+        <v>1.4166665074708369</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4166626939703313</v>
+        <v>1.4166664143589627</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4166603707923455</v>
+        <v>1.4166662667876193</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4166566894456591</v>
+        <v>1.4166660329053946</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4166508565166736</v>
+        <v>1.4166656622335612</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4166416159930573</v>
+        <v>1.416665074774654</v>
       </c>
       <c r="I1" t="n">
-        <v>1.4166269808963132</v>
+        <v>1.4166641437561163</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4166038112520638</v>
+        <v>1.4166626682943577</v>
       </c>
       <c r="K1" t="n">
-        <v>1.4165671534364515</v>
+        <v>1.416660330104181</v>
       </c>
       <c r="L1" t="n">
-        <v>1.4165092134356214</v>
+        <v>1.4166566249731007</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4164177793747585</v>
+        <v>1.416650754369284</v>
       </c>
       <c r="N1" t="n">
-        <v>1.416273841632101</v>
+        <v>1.4166414541874832</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4160481043498572</v>
+        <v>1.4166267246701891</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4156960984286684</v>
+        <v>1.4166034057079941</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.4151517952968966</v>
+        <v>1.4165665120596131</v>
       </c>
       <c r="R1" t="n">
-        <v>1.414320033585001</v>
+        <v>1.4165082003294738</v>
       </c>
       <c r="S1" t="n">
-        <v>1.4130682184754537</v>
+        <v>1.4164161821645607</v>
       </c>
       <c r="T1" t="n">
-        <v>1.4112152818232433</v>
+        <v>1.4162713310523098</v>
       </c>
       <c r="U1" t="n">
-        <v>1.4085052704743206</v>
+        <v>1.416044176079035</v>
       </c>
       <c r="V1" t="n">
-        <v>1.4045309062054347</v>
+        <v>1.4156899939185006</v>
       </c>
       <c r="W1" t="n">
-        <v>1.3985605154380398</v>
+        <v>1.4151424027079675</v>
       </c>
       <c r="X1" t="n">
-        <v>1.3892752461960514</v>
+        <v>1.4143057763105755</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.3745382777752202</v>
+        <v>1.4130469312646952</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.351348294815841</v>
+        <v>1.4111839981990317</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.3160437926058253</v>
+        <v>1.4084596088926649</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.2648544371521353</v>
+        <v>1.404463405029017</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.195034570488916</v>
+        <v>1.3984574294652887</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.1066170338653283</v>
+        <v>1.3891126967688214</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.004011400341673</v>
+        <v>1.374280064664057</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.8958438544424278</v>
+        <v>1.3509469434688024</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.7920396265869432</v>
+        <v>1.3154454583421973</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.6996038701059701</v>
+        <v>1.2640101518115845</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.6203723192670787</v>
+        <v>1.193921104409694</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.5523041183223995</v>
+        <v>1.1052634050599377</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.49247619766092027</v>
+        <v>1.0025128033682404</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.4390378553787492</v>
+        <v>0.8943398916105425</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3912391377280052</v>
+        <v>0.7906574993733151</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.34862980871212557</v>
+        <v>0.698405857210409</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.3106829181727348</v>
+        <v>0.6193501423902426</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.27687408144284564</v>
+        <v>0.5514162106493385</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.24674775886193728</v>
+        <v>0.49168714527146806</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.21990240782934034</v>
+        <v>0.4383312597097057</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.19597985806123203</v>
+        <v>0.3906083268731705</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.1746612758967134</v>
+        <v>0.3480680266659581</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.15566278994677157</v>
+        <v>0.31018249941871606</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.13873159652676087</v>
+        <v>0.2764281753806616</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.12364252623610451</v>
+        <v>0.24635042021216033</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.11019499815008263</v>
+        <v>0.21954833566229284</v>
+      </c>
+      <c r="AY1" t="n">
+        <v>0.1956643305712345</v>
+      </c>
+      <c r="AZ1" t="n">
+        <v>0.17438009004065105</v>
+      </c>
+      <c r="BA1" t="n">
+        <v>0.1554122029562999</v>
+      </c>
+      <c r="BB1" t="n">
+        <v>0.13850827499217802</v>
+      </c>
+      <c r="BC1" t="n">
+        <v>0.1234435009212536</v>
+      </c>
+      <c r="BD1" t="n">
+        <v>0.11001762391235892</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-385.7785118760298</v>
+        <v>-1530.8689792309253</v>
       </c>
       <c r="B2" t="n">
-        <v>-306.4351688726127</v>
+        <v>-1216.0125558113782</v>
       </c>
       <c r="C2" t="n">
-        <v>-243.41061602977712</v>
+        <v>-965.9132352009517</v>
       </c>
       <c r="D2" t="n">
-        <v>-193.3485660850829</v>
+        <v>-767.2523165852998</v>
       </c>
       <c r="E2" t="n">
-        <v>-153.58303232007577</v>
+        <v>-609.4503816273268</v>
       </c>
       <c r="F2" t="n">
-        <v>-121.99635504263517</v>
+        <v>-484.10390186263925</v>
       </c>
       <c r="G2" t="n">
-        <v>-96.90642847966134</v>
+        <v>-384.5377201650886</v>
       </c>
       <c r="H2" t="n">
-        <v>-76.97712249765212</v>
+        <v>-305.44957428850824</v>
       </c>
       <c r="I2" t="n">
-        <v>-61.14712877469721</v>
+        <v>-242.62773206688416</v>
       </c>
       <c r="J2" t="n">
-        <v>-48.573442210399776</v>
+        <v>-192.72670131751113</v>
       </c>
       <c r="K2" t="n">
-        <v>-38.58646772793085</v>
+        <v>-153.08907018118003</v>
       </c>
       <c r="L2" t="n">
-        <v>-30.654361693954034</v>
+        <v>-121.60399024701675</v>
       </c>
       <c r="M2" t="n">
-        <v>-24.354708916845063</v>
+        <v>-96.59476617066908</v>
       </c>
       <c r="N2" t="n">
-        <v>-19.352026755914057</v>
+        <v>-76.72956551981605</v>
       </c>
       <c r="O2" t="n">
-        <v>-15.3798980727673</v>
+        <v>-60.950493814169796</v>
       </c>
       <c r="P2" t="n">
-        <v>-12.226781114457543</v>
+        <v>-48.41725773441494</v>
       </c>
       <c r="Q2" t="n">
-        <v>-9.724740172011542</v>
+        <v>-38.46241633552085</v>
       </c>
       <c r="R2" t="n">
-        <v>-7.740496819281109</v>
+        <v>-30.55583718015537</v>
       </c>
       <c r="S2" t="n">
-        <v>-6.1683268592431695</v>
+        <v>-24.27646446075073</v>
       </c>
       <c r="T2" t="n">
-        <v>-4.924430239258362</v>
+        <v>-19.28989549428382</v>
       </c>
       <c r="U2" t="n">
-        <v>-3.9424827749188553</v>
+        <v>-15.330571173776736</v>
       </c>
       <c r="V2" t="n">
-        <v>-3.1701299314534443</v>
+        <v>-12.187631526383015</v>
       </c>
       <c r="W2" t="n">
-        <v>-2.566185920512171</v>
+        <v>-9.69368265520224</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.0982788962097194</v>
+        <v>-7.7158768147198415</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.7407373772060453</v>
+        <v>-6.148832321553062</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.4726660043820434</v>
+        <v>-4.9090218494323965</v>
       </c>
       <c r="AA2" t="n">
-        <v>-1.2762262477746242</v>
+        <v>-3.9303389170955683</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.1351050075330615</v>
+        <v>-3.1606032250589755</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.0333344997398515</v>
+        <v>-2.558767801876572</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.9550669361546223</v>
+        <v>-2.0925686976741082</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.8860215452140523</v>
+        <v>-1.7364140518339382</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.8163436188702224</v>
+        <v>-1.4694626742280108</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.742860052167448</v>
+        <v>-1.2739074830306003</v>
       </c>
       <c r="AH2" t="n">
-        <v>-0.6682925816337097</v>
+        <v>-1.1334470381071409</v>
       </c>
       <c r="AI2" t="n">
-        <v>-0.5974693857604142</v>
+        <v>-1.0321135757309359</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.533564523489149</v>
+        <v>-0.9540668897003983</v>
       </c>
       <c r="AK2" t="n">
-        <v>-0.4769951685230673</v>
+        <v>-0.8850667022700114</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.42666920763036614</v>
+        <v>-0.8153409761767957</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.3815238333034848</v>
+        <v>-0.7418133008542056</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.3409774180971806</v>
+        <v>-0.6672653025044593</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.30463353128929355</v>
+        <v>-0.5965236264433917</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0.2720903833702352</v>
+        <v>-0.5327241372040302</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-0.24296392357341676</v>
+        <v>-0.47625101917838003</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.21690807677961926</v>
+        <v>-0.4260036913767598</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.19360938999489635</v>
+        <v>-0.38092580009270843</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.17278403915333887</v>
+        <v>-0.3404408654965179</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.1541756900800126</v>
+        <v>-0.3041529446421471</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.1375532204230027</v>
+        <v>-0.2716601592342439</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.12270854492764928</v>
+        <v>-0.24257896461708184</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.10945455489586607</v>
+        <v>-0.21656378391582445</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>-0.1933015923215794</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.17250896610999078</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.15392993934109028</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.1373337267272742</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.12251255042080356</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.10927958119088928</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.2482788568944119</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>1.5714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>1.9783886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>2.4906437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>3.135534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>3.9474043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>4.969487637799881</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>6.256214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>7.876107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>9.915431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>12.482788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>15.714899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>19.783886625850936</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>24.906437617338508</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>31.355347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>39.4740434281772</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>49.69487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>62.56214270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>78.76107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>99.15431408405821</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>124.82788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>157.14899739497497</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>197.83886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>249.06437617338509</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>313.5534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>394.74043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>496.94876377998816</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>625.621427082324</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>787.6107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>991.543140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>1248.2788568944118</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>1571.4899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
-        <v>1978.3886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" t="n">
-        <v>2490.6437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AI3" t="n">
-        <v>3135.534723373362</v>
+        <v>#NUM!</v>
       </c>
       <c r="AJ3" t="n">
-        <v>3947.4043428177197</v>
+        <v>#NUM!</v>
       </c>
       <c r="AK3" t="n">
-        <v>4969.487637799882</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" t="n">
-        <v>6256.2142708232395</v>
+        <v>#NUM!</v>
       </c>
       <c r="AM3" t="n">
-        <v>7876.107127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AN3" t="n">
-        <v>9915.43140840582</v>
+        <v>#NUM!</v>
       </c>
       <c r="AO3" t="n">
-        <v>12482.788568944117</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" t="n">
-        <v>15714.899739497496</v>
+        <v>#NUM!</v>
       </c>
       <c r="AQ3" t="n">
-        <v>19783.886625850937</v>
+        <v>#NUM!</v>
       </c>
       <c r="AR3" t="n">
-        <v>24906.437617338506</v>
+        <v>#NUM!</v>
       </c>
       <c r="AS3" t="n">
-        <v>31355.347233733617</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" t="n">
-        <v>39474.043428177196</v>
+        <v>#NUM!</v>
       </c>
       <c r="AU3" t="n">
-        <v>49694.876377998815</v>
+        <v>#NUM!</v>
       </c>
       <c r="AV3" t="n">
-        <v>62562.14270823239</v>
+        <v>#NUM!</v>
       </c>
       <c r="AW3" t="n">
-        <v>78761.07127168692</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" t="n">
-        <v>99154.3140840582</v>
+        <v>#NUM!</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>#NUM!</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>

--- a/lin_R1_by_R2 (2.5 by 1)1000.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)1000.xlsx
@@ -410,172 +410,172 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.3145652230545877</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.3960141529701209</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.49855228060422774</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.6276401351605986</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.7901521156156034</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.9947425775314059</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1.2523067090479165</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.5765607393807466</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.9847723780434232</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>2.498680383346005</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>3.1456522305458767</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>3.960141529701209</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>4.985522806042278</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>6.276401351605986</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>7.901521156156034</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>9.94742577531406</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>12.523067090479165</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>15.765607393807466</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>19.847723780434233</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>24.98680383346005</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>31.45652230545877</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>39.60141529701209</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>49.855228060422775</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>62.76401351605986</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>79.01521156156033</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>99.47425775314059</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>125.23067090479165</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>157.65607393807466</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>198.4772378043423</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>249.8680383346005</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>314.5652230545877</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>396.01415297012085</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>498.55228060422775</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>627.6401351605986</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>790.1521156156034</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>994.7425775314059</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>1252.3067090479165</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1576.5607393807466</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1984.772378043423</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>2498.680383346005</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>3145.652230545877</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>3960.1415297012086</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>4985.522806042278</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>6276.401351605986</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>7901.521156156034</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>9947.42577531406</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>12523.067090479164</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>15765.607393807466</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>19847.723780434233</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>24986.80383346005</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>31456.52230545877</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>39601.415297012085</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>49855.22806042277</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>62764.01351605986</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>79015.21156156034</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>99474.25775314058</v>
       </c>
     </row>
   </sheetData>
@@ -933,172 +933,172 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.3145652230545877</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.3960141529701209</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.49855228060422774</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.6276401351605986</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.7901521156156034</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.9947425775314059</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1.2523067090479165</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.5765607393807466</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.9847723780434232</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>2.498680383346005</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>3.1456522305458767</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>3.960141529701209</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>4.985522806042278</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>6.276401351605986</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>7.901521156156034</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>9.94742577531406</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>12.523067090479165</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>15.765607393807466</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>19.847723780434233</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>24.98680383346005</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>31.45652230545877</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>39.60141529701209</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>49.855228060422775</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>62.76401351605986</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>79.01521156156033</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>99.47425775314059</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>125.23067090479165</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>157.65607393807466</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>198.4772378043423</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>249.8680383346005</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>314.5652230545877</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>396.01415297012085</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>498.55228060422775</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>627.6401351605986</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>790.1521156156034</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>994.7425775314059</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>1252.3067090479165</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1576.5607393807466</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1984.772378043423</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>2498.680383346005</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>3145.652230545877</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>3960.1415297012086</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>4985.522806042278</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>6276.401351605986</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>7901.521156156034</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>9947.42577531406</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>12523.067090479164</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>15765.607393807466</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>19847.723780434233</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>24986.80383346005</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>31456.52230545877</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>39601.415297012085</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>49855.22806042277</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>62764.01351605986</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>79015.21156156034</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>99474.25775314058</v>
       </c>
     </row>
   </sheetData>
@@ -1456,172 +1456,172 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.3145652230545877</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.3960141529701209</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.49855228060422774</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.6276401351605986</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.7901521156156034</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.9947425775314059</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1.2523067090479165</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.5765607393807466</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.9847723780434232</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>2.498680383346005</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>3.1456522305458767</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>3.960141529701209</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>4.985522806042278</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>6.276401351605986</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>7.901521156156034</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>9.94742577531406</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>12.523067090479165</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>15.765607393807466</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>19.847723780434233</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>24.98680383346005</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>31.45652230545877</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>39.60141529701209</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>49.855228060422775</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>62.76401351605986</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>79.01521156156033</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>99.47425775314059</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>125.23067090479165</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>157.65607393807466</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>198.4772378043423</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>249.8680383346005</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>314.5652230545877</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>396.01415297012085</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>498.55228060422775</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>627.6401351605986</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>790.1521156156034</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>994.7425775314059</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>1252.3067090479165</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1576.5607393807466</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1984.772378043423</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>2498.680383346005</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>3145.652230545877</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>3960.1415297012086</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>4985.522806042278</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>6276.401351605986</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>7901.521156156034</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>9947.42577531406</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>12523.067090479164</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>15765.607393807466</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>19847.723780434233</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>24986.80383346005</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>31456.52230545877</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>39601.415297012085</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>49855.22806042277</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>62764.01351605986</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>79015.21156156034</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>99474.25775314058</v>
       </c>
     </row>
   </sheetData>
@@ -1979,172 +1979,172 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>0.3145652230545877</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>0.3960141529701209</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>0.49855228060422774</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>0.6276401351605986</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>0.7901521156156034</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>0.9947425775314059</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>1.2523067090479165</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>1.5765607393807466</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>1.9847723780434232</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>2.498680383346005</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>3.1456522305458767</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>3.960141529701209</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>4.985522806042278</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>6.276401351605986</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>7.901521156156034</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>9.94742577531406</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>12.523067090479165</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>15.765607393807466</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>19.847723780434233</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>24.98680383346005</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>31.45652230545877</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>39.60141529701209</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>49.855228060422775</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>62.76401351605986</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>79.01521156156033</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>99.47425775314059</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>125.23067090479165</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>157.65607393807466</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>198.4772378043423</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>249.8680383346005</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>314.5652230545877</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>396.01415297012085</v>
       </c>
       <c r="AG3" t="n">
-        <v>#NUM!</v>
+        <v>498.55228060422775</v>
       </c>
       <c r="AH3" t="n">
-        <v>#NUM!</v>
+        <v>627.6401351605986</v>
       </c>
       <c r="AI3" t="n">
-        <v>#NUM!</v>
+        <v>790.1521156156034</v>
       </c>
       <c r="AJ3" t="n">
-        <v>#NUM!</v>
+        <v>994.7425775314059</v>
       </c>
       <c r="AK3" t="n">
-        <v>#NUM!</v>
+        <v>1252.3067090479165</v>
       </c>
       <c r="AL3" t="n">
-        <v>#NUM!</v>
+        <v>1576.5607393807466</v>
       </c>
       <c r="AM3" t="n">
-        <v>#NUM!</v>
+        <v>1984.772378043423</v>
       </c>
       <c r="AN3" t="n">
-        <v>#NUM!</v>
+        <v>2498.680383346005</v>
       </c>
       <c r="AO3" t="n">
-        <v>#NUM!</v>
+        <v>3145.652230545877</v>
       </c>
       <c r="AP3" t="n">
-        <v>#NUM!</v>
+        <v>3960.1415297012086</v>
       </c>
       <c r="AQ3" t="n">
-        <v>#NUM!</v>
+        <v>4985.522806042278</v>
       </c>
       <c r="AR3" t="n">
-        <v>#NUM!</v>
+        <v>6276.401351605986</v>
       </c>
       <c r="AS3" t="n">
-        <v>#NUM!</v>
+        <v>7901.521156156034</v>
       </c>
       <c r="AT3" t="n">
-        <v>#NUM!</v>
+        <v>9947.42577531406</v>
       </c>
       <c r="AU3" t="n">
-        <v>#NUM!</v>
+        <v>12523.067090479164</v>
       </c>
       <c r="AV3" t="n">
-        <v>#NUM!</v>
+        <v>15765.607393807466</v>
       </c>
       <c r="AW3" t="n">
-        <v>#NUM!</v>
+        <v>19847.723780434233</v>
       </c>
       <c r="AX3" t="n">
-        <v>#NUM!</v>
+        <v>24986.80383346005</v>
       </c>
       <c r="AY3" t="n">
-        <v>#NUM!</v>
+        <v>31456.52230545877</v>
       </c>
       <c r="AZ3" t="n">
-        <v>#NUM!</v>
+        <v>39601.415297012085</v>
       </c>
       <c r="BA3" t="n">
-        <v>#NUM!</v>
+        <v>49855.22806042277</v>
       </c>
       <c r="BB3" t="n">
-        <v>#NUM!</v>
+        <v>62764.01351605986</v>
       </c>
       <c r="BC3" t="n">
-        <v>#NUM!</v>
+        <v>79015.21156156034</v>
       </c>
       <c r="BD3" t="n">
-        <v>#NUM!</v>
+        <v>99474.25775314058</v>
       </c>
     </row>
   </sheetData>
